--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12035" windowHeight="7992"/>
+    <workbookView windowWidth="22103" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>管理员数据库</t>
   </si>
@@ -63,6 +63,12 @@
     <t>phonenumber</t>
   </si>
   <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>registertime</t>
+  </si>
+  <si>
     <t>图书数据库</t>
   </si>
   <si>
@@ -78,6 +84,24 @@
     <t>id</t>
   </si>
   <si>
+    <t>书名</t>
+  </si>
+  <si>
+    <t>bookname</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>出版社</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>ISBN</t>
   </si>
   <si>
@@ -120,10 +144,28 @@
     <t>number</t>
   </si>
   <si>
-    <t>借阅记录数据库</t>
-  </si>
-  <si>
-    <t>目前无此功能</t>
+    <t>借出本数</t>
+  </si>
+  <si>
+    <t>lent</t>
+  </si>
+  <si>
+    <t>借阅查询表</t>
+  </si>
+  <si>
+    <t>microservice-lend</t>
+  </si>
+  <si>
+    <t>借阅表</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>recordid</t>
+  </si>
+  <si>
+    <t>书id</t>
   </si>
   <si>
     <t>我表示完全不会微服务架构的安全相关的东西，什么权限验证，APIGate完全不熟练，可能后期这方面的东西要在数据库加表……</t>
@@ -134,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,14 +198,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,23 +234,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,6 +279,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -244,48 +319,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,43 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,139 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +555,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -544,17 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,21 +616,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,148 +639,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1205,33 +1240,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="2:3">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1285,19 +1323,89 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
